--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="141">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행율(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,12 +597,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 서브메뉴 밑줄 애니메이션 피드백 필요</t>
+    <t>1. position fixed 할 요소들은 한 곳에 묶어서 코딩 진행하는 것이 관리하기 좋음. Z-index 를 줘서 위치를 높일 수도 있음. Fixed는 보이는 화면을 기준으로 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익일
+To-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 탑 메뉴 스타일 2개 생성
+2. 서브메뉴 고정 코딩구역 생성하여 코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. 소스 자료 전체 리네이밍 (피그마에 맞춰져 있으므로 메인페이지 제작시 정리하면서 업데이트할 예정)
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 소스 자료 전체 리네이밍 (피그마에 맞춰져 있으므로 메인페이지 제작시 정리하면서 업데이트할 예정)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -631,7 +656,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3. 서브메뉴 마무리하고 2가지 스타일 만들어 놓기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 서브메뉴 마무리하고 2가지 스타일 만들어 놓기(12.09 CSS 까지 완료)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -657,22 +705,65 @@
       </rPr>
       <t xml:space="preserve">
 5. 탑 메뉴 디폴트 스타일 외 2가지 스타일 추가
-6. 장바구니 버튼 클릭시 화면 제작</t>
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. position fixed 할 요소들은 한 곳에 묶어서 코딩 진행하는 것이 관리하기 좋음. Z-index 를 줘서 위치를 높일 수도 있음. Fixed는 보이는 화면을 기준으로 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>익일
-To-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 상단 탑 메뉴 스타일 2개 생성
-2. 서브메뉴 고정 코딩구역 생성하여 코딩</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. 장바구니 버튼 클릭시 화면 제작(12.09 CSS 까지 완료)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서브메뉴 밑줄 애니메이션 피드백 필요(12/10 피드백 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-11 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 서브메뉴 밑줄 애니메이션 추가
+2. 메인 페이지 구성 시작
+- </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행율(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 밑줄 애니메이션 질문하기
+2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가하기
+3. 메인페이지 시작하기 -&gt; 룩북 직전까지 마치기
+4. 메인페이지 인디케이터 어떻게 할지 구상하기
+(서브페이지 인디케이터는 기존에 있는 것 리모델링)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[서브메뉴 마무리]
+1. 서브메뉴 밑줄 애니메이션 피드백
+- 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
+- 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
+2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
+[메인페이지 시작]
+1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +777,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +927,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1197,13 +1301,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1432,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1330,33 +1507,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,17 +1516,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,6 +1577,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFE4E4E4"/>
     </mruColors>
   </colors>
@@ -1427,6 +1590,555 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942974</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>120098</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1673087</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>397566</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2068" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2079" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2080" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,14 +2403,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:AD64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD79"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
@@ -1707,27 +2420,29 @@
     <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="29" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="30" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="2:30" ht="54.75" customHeight="1">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -1735,244 +2450,250 @@
       <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:29" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="B4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="42">
+      <c r="G4" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="32">
         <v>45630</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="44"/>
-    </row>
-    <row r="5" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="20">
-        <f>H4</f>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="34"/>
+    </row>
+    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="20">
+        <f>I4</f>
         <v>45630</v>
       </c>
-      <c r="I5" s="20">
-        <f>H5+1</f>
+      <c r="J5" s="20">
+        <f>I5+1</f>
         <v>45631</v>
       </c>
-      <c r="J5" s="20">
-        <f t="shared" ref="J5:AC6" si="0">I5+1</f>
+      <c r="K5" s="20">
+        <f t="shared" ref="K5:AD6" si="0">J5+1</f>
         <v>45632</v>
       </c>
-      <c r="K5" s="20">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="L5" s="20">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="M5" s="20">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="O5" s="20">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="P5" s="20">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="S5" s="20">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="T5" s="20">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="U5" s="20">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="V5" s="20">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="W5" s="20">
+      <c r="X5" s="20">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="X5" s="20">
+      <c r="Y5" s="20">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AD5" s="20">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="21">
-        <f>H5</f>
+    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="21">
+        <f>I5</f>
         <v>45630</v>
       </c>
-      <c r="I6" s="21">
-        <f>H6+1</f>
+      <c r="J6" s="21">
+        <f>I6+1</f>
         <v>45631</v>
       </c>
-      <c r="J6" s="21">
+      <c r="K6" s="21">
         <f t="shared" si="0"/>
         <v>45632</v>
       </c>
-      <c r="K6" s="21">
+      <c r="L6" s="21">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="L6" s="21">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="M6" s="21">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="N6" s="21">
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="O6" s="21">
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="P6" s="21">
+      <c r="Q6" s="21">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="R6" s="21">
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="S6" s="21">
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="T6" s="21">
+      <c r="U6" s="21">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="U6" s="21">
+      <c r="V6" s="21">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="V6" s="21">
+      <c r="W6" s="21">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="W6" s="21">
+      <c r="X6" s="21">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="X6" s="21">
+      <c r="Y6" s="21">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Z6" s="21">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AB6" s="21">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AC6" s="21">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AD6" s="21">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" ht="38.25" customHeight="1" thickTop="1">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1988,12 +2709,12 @@
         <v>6</v>
       </c>
       <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2014,8 +2735,9 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="2:29" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="2:30" ht="49.5" hidden="1">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2033,9 +2755,9 @@
         <v>6</v>
       </c>
       <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2057,8 +2779,9 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="2:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" ht="33" hidden="1">
       <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
@@ -2076,9 +2799,9 @@
         <v>6</v>
       </c>
       <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2100,8 +2823,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="2:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" ht="66" hidden="1">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2845,7 @@
       <c r="G10" s="19">
         <v>50</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2143,8 +2867,9 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="2:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="2:30" ht="33" hidden="1">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -2164,7 +2889,7 @@
       <c r="G11" s="19">
         <v>50</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2186,8 +2911,9 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="2:29" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="2:30" ht="26.25" hidden="1">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2933,7 @@
       <c r="G12" s="19">
         <v>50</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2229,8 +2955,9 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="2:29" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="2:30" ht="148.5" hidden="1">
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2248,9 +2975,9 @@
         <v>6</v>
       </c>
       <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2272,8 +2999,9 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="2:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="2:30" ht="33" hidden="1">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +3021,7 @@
       <c r="G14" s="19">
         <v>50</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2315,8 +3043,9 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="2:30" ht="37.5">
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +3065,7 @@
       <c r="G15" s="19">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2358,8 +3087,9 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="2:30" ht="31.5">
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +3107,7 @@
       <c r="G16" s="19">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2399,8 +3129,9 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" ht="31.5">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +3149,7 @@
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2440,8 +3171,9 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="2:30" ht="33">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +3193,7 @@
       <c r="G18" s="19">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2483,8 +3215,9 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="2:30" ht="49.5">
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2504,7 +3237,7 @@
       <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2526,8 +3259,9 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="2:30" ht="33">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +3281,7 @@
       <c r="G20" s="19">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2569,8 +3303,9 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" ht="33">
       <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +3325,7 @@
       <c r="G21" s="19">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2612,8 +3347,9 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" ht="49.5">
       <c r="B22" s="8" t="s">
         <v>67</v>
       </c>
@@ -2633,7 +3369,7 @@
       <c r="G22" s="19">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2655,8 +3391,9 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="2:30" ht="33">
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2676,7 +3413,7 @@
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2698,8 +3435,9 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="2:30" ht="26.25">
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -2719,7 +3457,7 @@
       <c r="G24" s="19">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2741,8 +3479,9 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="2:30" ht="33">
       <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +3501,7 @@
       <c r="G25" s="19">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2784,8 +3523,9 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" ht="33">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +3545,7 @@
       <c r="G26" s="19">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2827,8 +3567,9 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="2:30" ht="33">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2848,7 +3589,7 @@
       <c r="G27" s="19">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2870,8 +3611,9 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="2:30" ht="26.25">
       <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
@@ -2891,7 +3633,7 @@
       <c r="G28" s="19">
         <v>0</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2913,8 +3655,9 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="2:30" ht="66">
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -2934,7 +3677,7 @@
       <c r="G29" s="19">
         <v>0</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2956,8 +3699,9 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="2:30" ht="33">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +3721,7 @@
       <c r="G30" s="19">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2999,8 +3743,9 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="2:30" ht="33">
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3765,7 @@
       <c r="G31" s="19">
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3042,8 +3787,9 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="2:30" ht="37.5">
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3807,7 @@
       <c r="G32" s="19">
         <v>0</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3083,8 +3829,9 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="2:30" ht="33" hidden="1" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
@@ -3104,7 +3851,7 @@
       <c r="G33" s="19">
         <v>0</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3126,8 +3873,9 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
@@ -3147,7 +3895,7 @@
       <c r="G34" s="19">
         <v>0</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3169,8 +3917,9 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="2:30" ht="37.5">
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
@@ -3190,7 +3939,7 @@
       <c r="G35" s="19">
         <v>0</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3212,8 +3961,9 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="2:30" ht="66" hidden="1" customHeight="1">
       <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
@@ -3233,7 +3983,7 @@
       <c r="G36" s="19">
         <v>0</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3255,8 +4005,9 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
@@ -3276,7 +4027,7 @@
       <c r="G37" s="19">
         <v>0</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3298,8 +4049,9 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B38" s="7" t="s">
         <v>34</v>
       </c>
@@ -3317,7 +4069,7 @@
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3339,8 +4091,9 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="2:30" ht="26.25" hidden="1" customHeight="1">
       <c r="B39" s="8" t="s">
         <v>33</v>
       </c>
@@ -3360,7 +4113,7 @@
       <c r="G39" s="19">
         <v>0</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3382,8 +4135,9 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="2:30" ht="26.25" hidden="1" customHeight="1">
       <c r="B40" s="8" t="s">
         <v>35</v>
       </c>
@@ -3403,7 +4157,7 @@
       <c r="G40" s="19">
         <v>0</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3425,8 +4179,9 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="2:30" ht="26.25" hidden="1" customHeight="1">
       <c r="B41" s="8" t="s">
         <v>36</v>
       </c>
@@ -3446,7 +4201,7 @@
       <c r="G41" s="19">
         <v>0</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3468,8 +4223,9 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="2:30" ht="37.5">
       <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
@@ -3489,7 +4245,7 @@
       <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3511,8 +4267,9 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
@@ -3530,7 +4287,7 @@
       <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3552,8 +4309,9 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="2:30" ht="66" hidden="1" customHeight="1">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -3573,7 +4331,7 @@
       <c r="G44" s="19">
         <v>0</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3595,8 +4353,9 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="2:30" ht="26.25" hidden="1" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>39</v>
       </c>
@@ -3616,7 +4375,7 @@
       <c r="G45" s="19">
         <v>0</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3638,8 +4397,9 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +4417,7 @@
       <c r="G46" s="19">
         <v>0</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3679,8 +4439,9 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="2:30" ht="33" hidden="1" customHeight="1">
       <c r="B47" s="8" t="s">
         <v>42</v>
       </c>
@@ -3700,7 +4461,7 @@
       <c r="G47" s="19">
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3722,8 +4483,9 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="2:30" ht="66" hidden="1" customHeight="1">
       <c r="B48" s="8" t="s">
         <v>41</v>
       </c>
@@ -3743,7 +4505,7 @@
       <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3765,8 +4527,9 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +4549,7 @@
       <c r="G49" s="19">
         <v>0</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3808,8 +4571,9 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="2:30" ht="37.5">
       <c r="B50" s="6" t="s">
         <v>52</v>
       </c>
@@ -3827,7 +4591,7 @@
       <c r="G50" s="19">
         <v>0</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3849,8 +4613,9 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="2:29" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1">
       <c r="B51" s="7" t="s">
         <v>84</v>
       </c>
@@ -3870,7 +4635,7 @@
       <c r="G51" s="19">
         <v>0</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3892,8 +4657,9 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B52" s="7" t="s">
         <v>53</v>
       </c>
@@ -3913,7 +4679,7 @@
       <c r="G52" s="19">
         <v>0</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3935,8 +4701,9 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B53" s="7" t="s">
         <v>54</v>
       </c>
@@ -3956,7 +4723,7 @@
       <c r="G53" s="19">
         <v>0</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3978,8 +4745,9 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="2:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="2:30" ht="66">
       <c r="B54" s="6" t="s">
         <v>55</v>
       </c>
@@ -3999,7 +4767,7 @@
       <c r="G54" s="19">
         <v>0</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4021,8 +4789,9 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B55" s="7" t="s">
         <v>90</v>
       </c>
@@ -4039,7 +4808,7 @@
       <c r="G55" s="19">
         <v>0</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4061,8 +4830,9 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="2:29" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1">
       <c r="B56" s="8" t="s">
         <v>91</v>
       </c>
@@ -4082,7 +4852,7 @@
       <c r="G56" s="19">
         <v>0</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4104,8 +4874,9 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1">
       <c r="B57" s="8" t="s">
         <v>92</v>
       </c>
@@ -4125,7 +4896,7 @@
       <c r="G57" s="19">
         <v>0</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4147,8 +4918,9 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="2:30" ht="37.5">
       <c r="B58" s="6" t="s">
         <v>45</v>
       </c>
@@ -4168,7 +4940,7 @@
       <c r="G58" s="19">
         <v>0</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4190,8 +4962,9 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1">
       <c r="B59" s="7" t="s">
         <v>46</v>
       </c>
@@ -4211,7 +4984,7 @@
       <c r="G59" s="19">
         <v>0</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4233,8 +5006,9 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1">
       <c r="B60" s="7" t="s">
         <v>95</v>
       </c>
@@ -4254,7 +5028,7 @@
       <c r="G60" s="19">
         <v>0</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4276,8 +5050,9 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="2:30" ht="37.5">
       <c r="B61" s="6" t="s">
         <v>107</v>
       </c>
@@ -4295,7 +5070,7 @@
       <c r="G61" s="19">
         <v>0</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4317,8 +5092,9 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="2:29" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="2:30" ht="26.25" hidden="1">
       <c r="B62" s="8" t="s">
         <v>98</v>
       </c>
@@ -4336,7 +5112,7 @@
       <c r="G62" s="19">
         <v>0</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4358,8 +5134,9 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="2:29" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="2:30" ht="52.5" hidden="1">
       <c r="B63" s="17" t="s">
         <v>83</v>
       </c>
@@ -4377,7 +5154,7 @@
       <c r="G63" s="19">
         <v>0</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4399,8 +5176,9 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="2:29" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD63" s="1"/>
+    </row>
+    <row r="64" spans="2:30" ht="26.25" hidden="1">
       <c r="B64" s="8" t="s">
         <v>97</v>
       </c>
@@ -4418,7 +5196,7 @@
       <c r="G64" s="19">
         <v>0</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4440,10 +5218,11 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H4:AC4"/>
+  <mergeCells count="9">
+    <mergeCell ref="I4:AD4"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:D2"/>
@@ -4451,9 +5230,10 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G64">
+  <conditionalFormatting sqref="G7:H64">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -4467,18 +5247,202 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AC64">
+  <conditionalFormatting sqref="I7:AD64">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(H$5&gt;=$D7,H$5&lt;=$E7)</formula>
+      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AC64">
+  <conditionalFormatting sqref="I5:AD64">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>H$5=$E$3</formula>
+      <formula>I$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2068" r:id="rId5" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2076" r:id="rId6" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2077" r:id="rId7" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2078" r:id="rId8" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2079" r:id="rId9" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2080" r:id="rId10" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2081" r:id="rId11" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4493,7 +5457,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:G64</xm:sqref>
+          <xm:sqref>G7:H64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4503,41 +5467,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
     <col min="4" max="5" width="63.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="15" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+    <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="1:15" ht="54.75" customHeight="1">
+      <c r="B2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="32.25" thickBot="1">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -4546,113 +5511,121 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-    </row>
-    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-    </row>
-    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
+      <c r="B4" s="54"/>
+      <c r="C4" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+      <c r="B5" s="55"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" thickTop="1">
+      <c r="B7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="144">
+      <c r="B8" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10"/>
-      <c r="F10" s="4"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4663,18 +5636,20 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11"/>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1">
+      <c r="B11" s="54"/>
+      <c r="C11" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -4682,12 +5657,12 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12"/>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B12" s="55"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -4695,12 +5670,12 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13"/>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B13" s="56"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -4708,20 +5683,22 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
       <c r="B14" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14"/>
+        <v>122</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -4729,18 +5706,20 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1">
       <c r="B15" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15"/>
+        <v>129</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="26"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -4748,8 +5727,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16"/>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -4757,18 +5735,20 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17"/>
+    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B17" s="54"/>
+      <c r="C17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -4776,12 +5756,12 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18"/>
+    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B18" s="55"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -4789,12 +5769,12 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19"/>
+    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B19" s="56"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -4802,20 +5782,22 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
       <c r="B20" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -4823,16 +5805,18 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1">
       <c r="B21" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="E21" s="26"/>
-      <c r="F21"/>
+      <c r="F21" s="26"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -4840,8 +5824,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22"/>
+    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -4849,18 +5832,20 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23"/>
+    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
+      <c r="B23" s="54"/>
+      <c r="C23" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -4868,12 +5853,12 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="52"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24"/>
+    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B24" s="55"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -4881,27 +5866,29 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1">
+      <c r="B25" s="56"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
       <c r="B26" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26"/>
+      <c r="F26" s="28" t="s">
+        <v>134</v>
+      </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -4909,16 +5896,18 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" s="13" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="199.5" customHeight="1">
       <c r="B27" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27"/>
+        <v>116</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="29"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -4926,11 +5915,16 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="16.5" customHeight="1"/>
+    <row r="29" spans="2:12" ht="17.25" customHeight="1"/>
+    <row r="30" spans="2:12" ht="50.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E17:E19"/>
@@ -4947,7 +5941,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H4:O8">

--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="143">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,10 +518,6 @@
   </si>
   <si>
     <t>피드백 &amp; To-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,11 +734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -773,23 +764,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">*질문 :
-1. 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-2. SVG 색깔 바꾸기 </t>
+    <t>햄버거 - 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션
+2. 클릭시 해당 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">[서브메뉴 추가작업]
-1. 서브메뉴 밑줄 애니메이션 피드백
-- 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
-- 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
-2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
+1. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
 [메인페이지 시작]
 1. 메인페이지 html , css 완료
 2. about us 진행중
 - html 구조 생성 및 배경 제품 이미지 넣는 중
 - 해당 페이지에 들어가는 소스 이름 업데이트 완료
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 서브메뉴 밑줄 애니메이션 피드백
+- 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
+- 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백
+&amp; 질문 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 이후 진행
+4. 질문
+- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+- 상단영역 탑메뉴 SVG 색깔 바꾸기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1717,13 +1730,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1781,13 +1794,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1845,13 +1858,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1909,13 +1922,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1973,13 +1986,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2037,13 +2050,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2101,13 +2114,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2426,10 +2439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AD64"/>
+  <dimension ref="B1:AD65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2490,10 +2503,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>135</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>136</v>
       </c>
       <c r="I4" s="35">
         <v>45630</v>
@@ -2772,7 +2785,7 @@
         <v>45635</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
+        <f t="shared" ref="F8:F65" si="1">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
       <c r="G8" s="19">
@@ -2892,10 +2905,10 @@
     </row>
     <row r="11" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -2904,11 +2917,11 @@
         <v>45635</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F11" si="2">IF(E11="","",E11+1-D11)</f>
         <v>6</v>
       </c>
       <c r="G11" s="19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="1"/>
@@ -2934,12 +2947,12 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="12">
         <v>45630</v>
@@ -2978,12 +2991,12 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="2:30" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="12">
         <v>45630</v>
@@ -3022,12 +3035,12 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12">
         <v>45630</v>
@@ -3066,25 +3079,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+    <row r="15" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="12">
-        <v>45636</v>
+        <v>45630</v>
       </c>
       <c r="E15" s="12">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
@@ -3110,11 +3123,13 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1"/>
+    <row r="16" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" s="12">
         <v>45636</v>
       </c>
@@ -3154,7 +3169,7 @@
     </row>
     <row r="17" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="12">
@@ -3194,13 +3209,11 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="2:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>59</v>
-      </c>
+    <row r="18" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="12">
         <v>45636</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="1"/>
@@ -3238,12 +3251,12 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>19</v>
+    <row r="19" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12">
         <v>45636</v>
@@ -3256,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
@@ -3282,12 +3295,12 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="2:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>10</v>
+    <row r="20" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D20" s="12">
         <v>45636</v>
@@ -3328,10 +3341,10 @@
     </row>
     <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="12">
         <v>45636</v>
@@ -3370,12 +3383,12 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>67</v>
+    <row r="22" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D22" s="12">
         <v>45636</v>
@@ -3414,12 +3427,12 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D23" s="12">
         <v>45636</v>
@@ -3458,12 +3471,12 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="12">
         <v>45636</v>
@@ -3502,12 +3515,12 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="2:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>103</v>
+    <row r="25" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="12">
         <v>45636</v>
@@ -3547,11 +3560,11 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="2:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>22</v>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12">
         <v>45636</v>
@@ -3592,10 +3605,10 @@
     </row>
     <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12">
         <v>45636</v>
@@ -3634,12 +3647,12 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D28" s="12">
         <v>45636</v>
@@ -3678,12 +3691,12 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="2:30" ht="66" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>28</v>
+    <row r="29" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="12">
         <v>45636</v>
@@ -3722,12 +3735,12 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="2:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>26</v>
+    <row r="30" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D30" s="12">
         <v>45636</v>
@@ -3768,10 +3781,10 @@
     </row>
     <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12">
         <v>45636</v>
@@ -3810,11 +3823,13 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1"/>
+    <row r="32" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="D32" s="12">
         <v>45636</v>
       </c>
@@ -3852,13 +3867,11 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>71</v>
-      </c>
+    <row r="33" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="12">
         <v>45636</v>
       </c>
@@ -3896,12 +3909,12 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="12">
         <v>45636</v>
@@ -3940,22 +3953,22 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>73</v>
+    <row r="35" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="12">
-        <v>45639</v>
+        <v>45636</v>
       </c>
       <c r="E35" s="12">
-        <v>45642</v>
+        <v>45638</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="19">
         <v>0</v>
@@ -3984,12 +3997,12 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>33</v>
+    <row r="36" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="12">
         <v>45639</v>
@@ -4028,12 +4041,12 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D37" s="12">
         <v>45639</v>
@@ -4074,9 +4087,11 @@
     </row>
     <row r="38" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D38" s="12">
         <v>45639</v>
       </c>
@@ -4114,13 +4129,11 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="39" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="12">
         <v>45639</v>
       </c>
@@ -4160,10 +4173,10 @@
     </row>
     <row r="40" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D40" s="12">
         <v>45639</v>
@@ -4204,10 +4217,10 @@
     </row>
     <row r="41" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="12">
         <v>45639</v>
@@ -4246,22 +4259,22 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>32</v>
+    <row r="42" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D42" s="12">
-        <v>45643</v>
+        <v>45639</v>
       </c>
       <c r="E42" s="12">
-        <v>45644</v>
+        <v>45642</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
@@ -4290,11 +4303,13 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1"/>
+    <row r="43" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D43" s="12">
         <v>45643</v>
       </c>
@@ -4332,13 +4347,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>79</v>
-      </c>
+    <row r="44" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="12">
         <v>45643</v>
       </c>
@@ -4376,12 +4389,12 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D45" s="12">
         <v>45643</v>
@@ -4420,11 +4433,13 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1"/>
+    <row r="46" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D46" s="12">
         <v>45643</v>
       </c>
@@ -4462,13 +4477,11 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>81</v>
-      </c>
+    <row r="47" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="12">
         <v>45643</v>
       </c>
@@ -4506,12 +4519,12 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="12">
         <v>45643</v>
@@ -4550,12 +4563,12 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
+    <row r="49" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D49" s="12">
         <v>45643</v>
@@ -4594,11 +4607,13 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1"/>
+    <row r="50" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D50" s="12">
         <v>45643</v>
       </c>
@@ -4636,13 +4651,11 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>87</v>
-      </c>
+    <row r="51" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="12">
         <v>45643</v>
       </c>
@@ -4680,12 +4693,12 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D52" s="12">
         <v>45643</v>
@@ -4726,10 +4739,10 @@
     </row>
     <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="12">
         <v>45643</v>
@@ -4768,18 +4781,18 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="66" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>88</v>
+    <row r="54" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D54" s="12">
-        <v>45645</v>
+        <v>45643</v>
       </c>
       <c r="E54" s="12">
-        <v>45646</v>
+        <v>45644</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="1"/>
@@ -4812,9 +4825,12 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>90</v>
+    <row r="55" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="B55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D55" s="12">
         <v>45645</v>
@@ -4853,12 +4869,9 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>89</v>
+    <row r="56" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D56" s="12">
         <v>45645</v>
@@ -4897,12 +4910,12 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D57" s="12">
         <v>45645</v>
@@ -4941,12 +4954,12 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>106</v>
+    <row r="58" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D58" s="12">
         <v>45645</v>
@@ -4985,12 +4998,12 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>46</v>
+    <row r="59" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D59" s="12">
         <v>45645</v>
@@ -5029,12 +5042,12 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D60" s="12">
         <v>45645</v>
@@ -5073,20 +5086,22 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="11"/>
+    <row r="61" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="D61" s="12">
+        <v>45645</v>
+      </c>
+      <c r="E61" s="12">
         <v>45646</v>
-      </c>
-      <c r="E61" s="12">
-        <v>45650</v>
       </c>
       <c r="F61" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="19">
         <v>0</v>
@@ -5115,9 +5130,9 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="8" t="s">
-        <v>98</v>
+    <row r="62" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12">
@@ -5157,9 +5172,9 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>83</v>
+    <row r="63" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="12">
@@ -5199,9 +5214,9 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
-        <v>97</v>
+    <row r="64" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="12">
@@ -5241,6 +5256,48 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
+    <row r="65" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12">
+        <v>45646</v>
+      </c>
+      <c r="E65" s="12">
+        <v>45650</v>
+      </c>
+      <c r="F65" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I4:AD4"/>
@@ -5254,7 +5311,7 @@
     <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G7:H64">
+  <conditionalFormatting sqref="G7:H65">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5268,12 +5325,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AD64">
+  <conditionalFormatting sqref="I7:AD65">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AD64">
+  <conditionalFormatting sqref="I5:AD65">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>I$5=$E$3</formula>
     </cfRule>
@@ -5315,13 +5372,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5337,13 +5394,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5359,14 +5416,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5381,14 +5438,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5403,14 +5460,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5425,14 +5482,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>53</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5447,14 +5504,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5478,7 +5535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:H64</xm:sqref>
+          <xm:sqref>G7:H65</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5491,14 +5548,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
     <col min="4" max="5" width="63.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
@@ -5535,10 +5592,10 @@
     <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>111</v>
@@ -5574,7 +5631,7 @@
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="43"/>
@@ -5593,19 +5650,19 @@
     </row>
     <row r="7" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="31"/>
@@ -5617,18 +5674,18 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" ht="336" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="30"/>
@@ -5706,19 +5763,19 @@
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5729,16 +5786,16 @@
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15"/>
@@ -5759,10 +5816,10 @@
     <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="61"/>
       <c r="C17" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>111</v>
@@ -5805,19 +5862,19 @@
     </row>
     <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5828,13 +5885,13 @@
     </row>
     <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -5856,13 +5913,13 @@
     <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="61"/>
       <c r="C23" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="60" t="s">
         <v>111</v>
@@ -5896,19 +5953,19 @@
     </row>
     <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>122</v>
-      </c>
       <c r="F26" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -5917,16 +5974,16 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" s="13" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27"/>
@@ -5941,6 +5998,11 @@
     <row r="30" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E17:E19"/>
@@ -5957,11 +6019,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H4:O8">
